--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Dropbox\Studium\EISWS1314_CoMusic\Projektplan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12330"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="152511" iterate="1"/>
 </workbook>
 </file>
 
@@ -246,17 +251,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -270,6 +283,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,7 +369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,15 +580,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
@@ -591,7 +607,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -600,32 +616,34 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8">
+      <c r="B6" s="3"/>
+      <c r="C6" s="7">
         <f>DATE(2013,10,7)</f>
         <v>41554</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>SUM(D7:D11)</f>
         <v>50</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -634,10 +652,10 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -648,10 +666,10 @@
       <c r="D8">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -662,10 +680,10 @@
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -676,10 +694,10 @@
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -690,29 +708,29 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7">
         <f>DATE(2013,10,28)</f>
         <v>41575</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>SUM(D13:D38)</f>
         <v>90</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -721,10 +739,10 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -735,10 +753,10 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -749,10 +767,10 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -763,17 +781,23 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -782,9 +806,10 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
+      <c r="F19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -793,9 +818,10 @@
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
+      <c r="F20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -804,14 +830,21 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
+      <c r="F21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -820,7 +853,8 @@
       <c r="D24">
         <v>6</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -831,7 +865,8 @@
       <c r="D25">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -842,9 +877,14 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -853,17 +893,23 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+      <c r="F28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -872,10 +918,10 @@
       <c r="D31">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -886,12 +932,16 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+      <c r="F32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -900,10 +950,10 @@
       <c r="D34">
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -914,10 +964,10 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -928,10 +978,10 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -942,29 +992,33 @@
       <c r="D37">
         <v>5</v>
       </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+      <c r="F37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8">
+      <c r="B39" s="3"/>
+      <c r="C39" s="7">
         <f>DATE(2013,11,11)</f>
         <v>41589</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f>SUM(D40:D43)</f>
         <v>10</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -973,10 +1027,10 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -987,10 +1041,10 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1001,10 +1055,10 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1015,101 +1069,115 @@
       <c r="D43">
         <v>3</v>
       </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8">
+      <c r="B44" s="3"/>
+      <c r="C44" s="7">
         <f>DATE(2014,1,20)</f>
         <v>41659</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>50</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8">
+      <c r="B46" s="3"/>
+      <c r="C46" s="7">
         <f>DATE(2014,1,13)</f>
         <v>41652</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8">
+      <c r="B48" s="3"/>
+      <c r="C48" s="7">
         <f>DATE(2014,1,20)</f>
         <v>41659</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>150</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8">
+      <c r="B50" s="3"/>
+      <c r="C50" s="7">
         <f>DATE(2014,1,27)</f>
         <v>41666</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>60</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
     <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="3">
         <f>D50+D$48+D46+D39+D12+D6+D44</f>
         <v>610</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Dropbox\Studium\EISWS1314_CoMusic\Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\EISWS1314_CoMusic\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,8 +638,7 @@
         <v>41554</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(D7:D11)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="11"/>
@@ -1168,7 +1167,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="3">
         <f>D50+D$48+D46+D39+D12+D6+D44</f>
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="11"/>
@@ -1186,7 +1185,7 @@
 </oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D6 D39" formulaRange="1"/>
+    <ignoredError sqref="D39" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\EISWS1314_CoMusic\Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\GitHub\EISWS1314_CoMusic\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="28512" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -581,26 +581,26 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -623,12 +623,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C5"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -638,19 +638,26 @@
         <v>41554</v>
       </c>
       <c r="D6" s="3">
+        <f>SUM(D7:D11)</f>
         <v>40</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <f>SUM(E7:E11)</f>
+        <v>32</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
       <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
@@ -658,12 +665,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>20</v>
@@ -672,12 +682,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>20</v>
@@ -686,12 +699,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>20</v>
@@ -700,12 +716,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>20</v>
@@ -714,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -727,17 +746,23 @@
         <f>SUM(D13:D38)</f>
         <v>90</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <f>SUM(E13:E37)</f>
+        <v>7</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>20</v>
       </c>
@@ -745,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -759,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -773,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -787,18 +812,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -810,7 +835,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -822,7 +847,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -834,18 +859,18 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -857,7 +882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -869,7 +894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -881,11 +906,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -899,18 +924,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -924,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -938,11 +963,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -956,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>37</v>
       </c>
@@ -970,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -984,7 +1009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -998,11 +1023,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1044,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>41</v>
       </c>
@@ -1033,7 +1058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -1047,7 +1072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>43</v>
       </c>
@@ -1061,7 +1086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -1075,7 +1100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -1091,7 +1116,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -1099,7 +1124,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1115,11 +1140,11 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1135,11 +1160,11 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -1155,11 +1180,11 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1198,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
@@ -1196,7 +1221,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1208,7 +1233,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\GitHub\EISWS1314_CoMusic\Projektplan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="28512" windowHeight="12336"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>CoMusic Projektplan</t>
   </si>
@@ -162,6 +157,69 @@
   </si>
   <si>
     <t>Proof-of-Concepts planen</t>
+  </si>
+  <si>
+    <t>Einleitung</t>
+  </si>
+  <si>
+    <t>Beschreibung der aktuellen Situation</t>
+  </si>
+  <si>
+    <t>Problemstellung nochmal genauer</t>
+  </si>
+  <si>
+    <t>Lösungsansatz</t>
+  </si>
+  <si>
+    <t>MCI-Teil</t>
+  </si>
+  <si>
+    <t>Benutzermodellierung</t>
+  </si>
+  <si>
+    <t>User Profiles</t>
+  </si>
+  <si>
+    <t>Personae</t>
+  </si>
+  <si>
+    <t>Aufgabenmodellierung</t>
+  </si>
+  <si>
+    <t>HTA (Erfordernisse)</t>
+  </si>
+  <si>
+    <t>Anforderungen</t>
+  </si>
+  <si>
+    <t>Szenarienerstellung</t>
+  </si>
+  <si>
+    <t>Verstehen und Festlegen des Nutzungskontextes:</t>
+  </si>
+  <si>
+    <t>Nutzungskontext/Probleme identifizieren</t>
+  </si>
+  <si>
+    <t>Anforderungen aus Erfordernissen der Nutzer und deren Kontext (funktional/nonfunktional)</t>
+  </si>
+  <si>
+    <t>Festlegen der Nutzungsanforderungen:</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Erarbeiten von Gestaltungslösungen zur Erfüllung der Nutzungsanforderungen:</t>
+  </si>
+  <si>
+    <t>Evaluieren von Gestaltungslösungen</t>
+  </si>
+  <si>
+    <t>ggf. Iteration von Gestaltungsaktivitäten</t>
+  </si>
+  <si>
+    <t>Technische Aspekte erläutern und beschreiben</t>
   </si>
 </sst>
 </file>
@@ -251,7 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
@@ -270,6 +328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -334,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,29 +637,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -623,12 +682,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -648,7 +707,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -665,7 +724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -682,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -699,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -716,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -733,7 +792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -753,7 +812,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -770,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -784,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -798,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -812,18 +871,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -835,7 +894,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -847,7 +906,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -859,18 +918,18 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -882,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -894,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -906,11 +965,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -924,18 +983,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -949,7 +1008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -963,11 +1022,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -981,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>37</v>
       </c>
@@ -995,7 +1054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -1009,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -1023,11 +1082,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1103,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>41</v>
       </c>
@@ -1058,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>43</v>
       </c>
@@ -1086,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -1100,7 +1159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1175,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -1124,7 +1183,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1140,67 +1199,285 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
+    <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="7">
+      <c r="B92" s="3"/>
+      <c r="C92" s="7">
         <f>DATE(2014,1,20)</f>
         <v>41659</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D92" s="3">
         <v>150</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
+      <c r="E92" s="3"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="7">
+      <c r="B94" s="3"/>
+      <c r="C94" s="7">
         <f>DATE(2014,1,27)</f>
         <v>41666</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D94" s="3">
         <v>60</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
+      <c r="E94" s="3"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="3">
-        <f>D50+D$48+D46+D39+D12+D6+D44</f>
+      <c r="B96" s="3"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="3">
+        <f>D94+D$92+D46+D39+D12+D6+D44</f>
         <v>600</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="6:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1221,7 +1498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1233,7 +1510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
   <si>
     <t>Meilenstein</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Pufferzeit</t>
   </si>
   <si>
-    <t>Pufferzeiten!</t>
-  </si>
-  <si>
     <t>Recherchieren</t>
   </si>
   <si>
@@ -293,10 +290,79 @@
     <t>Implementation Notationsspur</t>
   </si>
   <si>
-    <t>(Implementationen in Java)</t>
-  </si>
-  <si>
     <t>Installation Jersey</t>
+  </si>
+  <si>
+    <t>Infos: Pufferzeiten!</t>
+  </si>
+  <si>
+    <t>Allgemeines Fazit</t>
+  </si>
+  <si>
+    <t>Bewertung des eigenen Prozesses</t>
+  </si>
+  <si>
+    <t>Prozessdokumentation</t>
+  </si>
+  <si>
+    <t>Zeitlicher Verlauf des Projektes</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten/Probleme =&gt; Behebung/Umgang</t>
+  </si>
+  <si>
+    <t>Wichtige Entscheidungen</t>
+  </si>
+  <si>
+    <t>Beschreibung der durchgef. MCI-Methoden mit Ergebnissen</t>
+  </si>
+  <si>
+    <t>Aktivitätenverteilung (Schwerpunkte MCI/WBA)</t>
+  </si>
+  <si>
+    <t>Projektplan erläutern (Plan in Anhang)</t>
+  </si>
+  <si>
+    <t>Systemdokumentation</t>
+  </si>
+  <si>
+    <t>Klare Beschreibung des entwickelten Systems</t>
+  </si>
+  <si>
+    <t>Zielsetzung</t>
+  </si>
+  <si>
+    <t>Benutzer(gruppen)/Stakeholder</t>
+  </si>
+  <si>
+    <t>funktionale/qualitative/organisat. Anforderungen</t>
+  </si>
+  <si>
+    <t>aussagekräftiges Architekturmodell</t>
+  </si>
+  <si>
+    <t>technische Umsetzung</t>
+  </si>
+  <si>
+    <t>Alternativen erwähnen</t>
+  </si>
+  <si>
+    <t>Abwägungen</t>
+  </si>
+  <si>
+    <t>Abweichungen vom Konzept</t>
+  </si>
+  <si>
+    <t>Elementare Klassen &amp; Methoden</t>
+  </si>
+  <si>
+    <t>Installationsdokumentation</t>
+  </si>
+  <si>
+    <t>Anforderungen an ein System</t>
+  </si>
+  <si>
+    <t>Installationsschritte</t>
   </si>
 </sst>
 </file>
@@ -394,7 +460,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -425,7 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Erklärender Text" xfId="5" builtinId="53"/>
@@ -735,19 +800,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="6" customWidth="1"/>
@@ -778,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -791,7 +856,7 @@
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="12">
         <f>DATE(2014,1,24)</f>
@@ -800,11 +865,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <f>E5+E13+E43+E50+E71+E117+E119</f>
+        <f>E5+E13+E43+E50+E71+E133+E135</f>
         <v>611</v>
       </c>
       <c r="F3" s="2">
-        <f>F5+F13+F43+F50+F71+F117+F119</f>
+        <f>F5+F13+F43+F50+F71+F133+F135</f>
         <v>115</v>
       </c>
       <c r="G3" s="2"/>
@@ -927,15 +992,6 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
@@ -1206,7 +1262,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -1329,15 +1385,6 @@
       </c>
       <c r="E41">
         <v>10</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1397,7 +1444,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1436,15 +1483,6 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
@@ -1458,9 +1496,7 @@
         <v>41616</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2">
         <f>SUM(E51:E69)</f>
         <v>46</v>
@@ -1475,13 +1511,13 @@
     <row r="51" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1490,7 +1526,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1499,7 +1535,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1508,7 +1544,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -1517,13 +1553,13 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1532,7 +1568,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1541,7 +1577,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1550,7 +1586,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -1559,13 +1595,13 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1574,7 +1610,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1583,7 +1619,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -1592,13 +1628,13 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -1607,7 +1643,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -1624,15 +1660,6 @@
       <c r="E69">
         <v>10</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
@@ -1656,283 +1683,395 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
-      <c r="C78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
-      <c r="C79" s="4"/>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
-      <c r="C80" t="s">
-        <v>51</v>
+      <c r="D80" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
-      <c r="C81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
-      <c r="C83" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="3"/>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="C84" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
-      <c r="C86" s="8" t="s">
-        <v>47</v>
+      <c r="C86" t="s">
+        <v>50</v>
       </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
-      <c r="C87" s="3" t="s">
-        <v>48</v>
+      <c r="C87" t="s">
+        <v>54</v>
       </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
-      <c r="C88" s="3" t="s">
-        <v>49</v>
+      <c r="C88" t="s">
+        <v>52</v>
       </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
       <c r="C96" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
       <c r="C97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
       <c r="C98" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="C101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="11"/>
-      <c r="C102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="11"/>
-      <c r="C103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="11"/>
-      <c r="C106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
-      <c r="C111" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
-      <c r="C112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
-      <c r="C113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="11"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
-    </row>
-    <row r="117" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+      <c r="D115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="11"/>
+      <c r="D116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="11"/>
+      <c r="D117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="11"/>
+      <c r="C118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="11"/>
+      <c r="D119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="11"/>
+      <c r="D120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="11"/>
+      <c r="C129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="11"/>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="133" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B133" s="12">
         <f>DATE(2014,1,20)</f>
         <v>41659</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2">
         <v>150</v>
       </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+      <c r="F133" s="2"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B135" s="12">
         <f>DATE(2014,1,27)</f>
         <v>41666</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2">
         <v>60</v>
       </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123"/>
-      <c r="G123"/>
-      <c r="H123"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139"/>
+      <c r="G139"/>
+      <c r="H139"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\EISWS1314_CoMusic\Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\GitHub\EISWS1314_CoMusic\Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="28512" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>Meilenstein</t>
   </si>
@@ -803,24 +803,24 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,12 +849,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2">
         <f>E5+E13+E43+E50+E71+E133+E135</f>
-        <v>611</v>
+        <v>431</v>
       </c>
       <c r="F3" s="2">
         <f>F5+F13+F43+F50+F71+F133+F135</f>
@@ -875,10 +875,10 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="H5" s="7"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -934,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -968,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -993,10 +993,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1017,12 +1017,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>62</v>
       </c>
@@ -1056,12 +1056,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>63</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>64</v>
       </c>
@@ -1095,12 +1095,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>65</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>66</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -1151,13 +1151,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>23</v>
       </c>
@@ -1190,13 +1190,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>26</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>67</v>
       </c>
@@ -1255,12 +1255,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>71</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>69</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>70</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>72</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>38</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="9" t="s">
         <v>70</v>
       </c>
@@ -1484,10 +1484,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -1508,13 +1508,13 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
       <c r="C51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
       <c r="D52" t="s">
         <v>76</v>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
       <c r="D53" t="s">
         <v>77</v>
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
       <c r="D54" t="s">
         <v>81</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="11"/>
       <c r="D55" t="s">
         <v>78</v>
@@ -1550,13 +1550,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
       <c r="D57" t="s">
         <v>80</v>
@@ -1565,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
       <c r="D58" t="s">
         <v>82</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" s="11"/>
       <c r="D59" t="s">
         <v>83</v>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
       <c r="D60" t="s">
         <v>78</v>
@@ -1592,13 +1592,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" s="11"/>
       <c r="C61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
       <c r="D62" t="s">
         <v>85</v>
@@ -1607,7 +1607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
       <c r="D63" t="s">
         <v>89</v>
@@ -1616,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
       <c r="D64" t="s">
         <v>78</v>
@@ -1625,13 +1625,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B65" s="11"/>
       <c r="C65" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66" s="11"/>
       <c r="D66" t="s">
         <v>87</v>
@@ -1640,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B67" s="11"/>
       <c r="D67" t="s">
         <v>88</v>
@@ -1649,10 +1649,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
       <c r="C69" s="9" t="s">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -1675,192 +1675,196 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
-        <v>200</v>
+        <f>SUM(E72:E131)</f>
+        <v>20</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
       <c r="C72" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="D73" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="D74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="D75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="D76" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
       <c r="C77" t="s">
         <v>43</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B78" s="11"/>
       <c r="C78" s="4"/>
       <c r="D78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
       <c r="C79" t="s">
         <v>44</v>
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
       <c r="D80" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="11"/>
       <c r="D81" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="11"/>
       <c r="D82" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
       <c r="C83" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
       <c r="C84" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
       <c r="C86" t="s">
         <v>50</v>
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
       <c r="C87" t="s">
         <v>54</v>
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
       <c r="C88" t="s">
         <v>52</v>
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
       <c r="C90" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="11"/>
       <c r="C91" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="11"/>
       <c r="C92" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="11"/>
       <c r="C93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
       <c r="C94" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
       <c r="C95" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
       <c r="C96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="11"/>
       <c r="C97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
       <c r="C98" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
       <c r="C99" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="11"/>
       <c r="C101" t="s">
         <v>93</v>
@@ -1869,160 +1873,166 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
       <c r="D102" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
       <c r="D103" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="11"/>
       <c r="D104" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="11"/>
       <c r="D105" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="11"/>
       <c r="D106" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="11"/>
       <c r="C107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="11"/>
       <c r="D108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="11"/>
       <c r="D109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
       <c r="D110" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="11"/>
       <c r="D111" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
       <c r="D112" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
       <c r="D113" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="D114" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
       <c r="D115" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="11"/>
       <c r="D116" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="11"/>
       <c r="D117" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="11"/>
       <c r="C118" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="11"/>
       <c r="D119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="11"/>
       <c r="D120" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B129" s="11"/>
       <c r="C129" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130" s="11"/>
       <c r="C130" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B131" s="11"/>
-    </row>
-    <row r="133" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C131" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
@@ -2039,8 +2049,8 @@
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
@@ -2057,18 +2067,18 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B137"/>
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B138"/>
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B139"/>
       <c r="G139"/>
       <c r="H139"/>
@@ -2089,7 +2099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2101,7 +2111,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projektplan/Projektplan.xlsx
+++ b/Projektplan/Projektplan.xlsx
@@ -803,8 +803,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
